--- a/src/test/resources/financial_data_formula.xlsx
+++ b/src/test/resources/financial_data_formula.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -199,12 +199,6 @@
   </si>
   <si>
     <t>FC_TOTAL_NON_INT_EXP_BNK/(FC_GROSS_INT_DIV_INC_BNK+FC_NET_INT_INC_BNK)</t>
-  </si>
-  <si>
-    <t>FC_LOANS_SECURITIES_IMPAIRMENT_PRE_IMPAIRMENT_OPER_PROFIT_BNK</t>
-  </si>
-  <si>
-    <t>(FC_LOAN_IMP_CHARGE_BNK+FC_SECURITIES_OTHER_CREDIT_IMP_CHARGES_BNK)/FC_PRE_IMP_OPER_PROFIT_BNK</t>
   </si>
   <si>
     <t>FC_OPER_PROFIT_RISK_WEIGHTED_ASSETS_BNK</t>
@@ -318,24 +312,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -684,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,7 +718,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -749,7 +726,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -805,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1016,32 +993,24 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="5" priority="7">
       <formula>IF(FIND(" ",$A1)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A41">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="B39">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>IF(FIND(" ",$A39)&gt;0,TRUE,FALSE)</formula>
+    </cfRule>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A40">
+    <cfRule type="expression" dxfId="1" priority="9">
       <formula>IF(FIND(" ",$A2)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF(FIND(" ",$A40)&gt;0,TRUE,FALSE)</formula>
-    </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/financial_data_formula.xlsx
+++ b/src/test/resources/financial_data_formula.xlsx
@@ -255,7 +255,7 @@
     <t>FC_NET_INT_INC_BNK+FC_TOTAL_NON_INT_EXP_BNK+FC_EQUITY_ACCOUNTED_OPER_BNK</t>
   </si>
   <si>
-    <t>FC_RESIDENTIAL_MORTGAGE_LOANS_BNK+FC_OTHER_MORTGAGE_LOANS_BNK+FC_CORP_COMM_LOANS_BNK+FC_OTHER_LOANS_BNK-FC_RESERVES_IMPAIRED_LOANS_NPL_BNK</t>
+    <t>FC_RESIDENTIAL_MORTGAGE_LOANS_BNK + FC_OTHER_MORTGAGE_LOANS_BNK+ FC_OTHER_CONS_RETAIL_LOANS_BNK+ FC_CORP_COMM_LOANS_BNK + FC_OTHER_LOANS_BNK - FC_RESERVES_IMPAIRED_LOANS_NPL_BNK</t>
   </si>
 </sst>
 </file>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/resources/financial_data_formula.xlsx
+++ b/src/test/resources/financial_data_formula.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20610" windowHeight="11640"/>
+    <workbookView xWindow="120" yWindow="50" windowWidth="20610" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="formula" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -199,12 +199,6 @@
   </si>
   <si>
     <t>FC_TOTAL_NON_INT_EXP_BNK/(FC_GROSS_INT_DIV_INC_BNK+FC_NET_INT_INC_BNK)</t>
-  </si>
-  <si>
-    <t>FC_OPER_PROFIT_RISK_WEIGHTED_ASSETS_BNK</t>
-  </si>
-  <si>
-    <t>FC_OPER_PROFIT_BNK/FC_RWA_INCL_CAP_BASEL_II_BNK</t>
   </si>
   <si>
     <t>FC_TANGIBLE_COMMON_EQUITY_TANGIBLE_ASSETS_BNK</t>
@@ -661,19 +655,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="63.140625" customWidth="1"/>
-    <col min="2" max="2" width="89.42578125" customWidth="1"/>
+    <col min="1" max="1" width="63.1796875" customWidth="1"/>
+    <col min="2" max="2" width="89.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -689,7 +683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -697,7 +691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -705,7 +699,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -713,23 +707,23 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>12</v>
       </c>
@@ -737,7 +731,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -745,7 +739,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -753,7 +747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -761,7 +755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -769,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -777,15 +771,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -793,7 +787,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>27</v>
       </c>
@@ -801,7 +795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>29</v>
       </c>
@@ -809,7 +803,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -817,7 +811,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>33</v>
       </c>
@@ -825,7 +819,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -833,7 +827,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
@@ -841,7 +835,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>39</v>
       </c>
@@ -849,7 +843,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -857,7 +851,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>43</v>
       </c>
@@ -865,7 +859,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>45</v>
       </c>
@@ -873,7 +867,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
@@ -881,7 +875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>49</v>
       </c>
@@ -889,7 +883,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>51</v>
       </c>
@@ -897,7 +891,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
@@ -905,7 +899,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>55</v>
       </c>
@@ -913,7 +907,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>57</v>
       </c>
@@ -921,7 +915,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>59</v>
       </c>
@@ -929,7 +923,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>61</v>
       </c>
@@ -937,7 +931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>63</v>
       </c>
@@ -945,7 +939,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -953,7 +947,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -961,7 +955,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>69</v>
       </c>
@@ -969,7 +963,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>71</v>
       </c>
@@ -977,7 +971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
@@ -985,12 +979,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>76</v>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1000,17 +991,17 @@
     </cfRule>
     <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B39">
+  <conditionalFormatting sqref="B38">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>IF(FIND(" ",$A39)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$A38)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A40">
-    <cfRule type="expression" dxfId="1" priority="9">
+  <conditionalFormatting sqref="A2:A39">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>IF(FIND(" ",$A2)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1022,7 +1013,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1034,7 +1025,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/financial_data_formula.xlsx
+++ b/src/test/resources/financial_data_formula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -193,12 +193,6 @@
   </si>
   <si>
     <t>FC_NET_INT_INC_BNK/FC_AVG_EARNING_ASSETS_BNK</t>
-  </si>
-  <si>
-    <t>FC_NON_INT_EXP_GROSS_REV_BNK</t>
-  </si>
-  <si>
-    <t>FC_TOTAL_NON_INT_EXP_BNK/(FC_GROSS_INT_DIV_INC_BNK+FC_NET_INT_INC_BNK)</t>
   </si>
   <si>
     <t>FC_TANGIBLE_COMMON_EQUITY_TANGIBLE_ASSETS_BNK</t>
@@ -655,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -712,7 +706,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -720,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -776,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -947,7 +941,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>67</v>
       </c>
@@ -969,19 +963,6 @@
       </c>
       <c r="B38" s="2" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -991,17 +972,17 @@
     </cfRule>
     <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
+  <conditionalFormatting sqref="B37">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>IF(FIND(" ",$A38)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$A37)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A39">
-    <cfRule type="expression" dxfId="1" priority="11">
+  <conditionalFormatting sqref="A2:A38">
+    <cfRule type="expression" dxfId="1" priority="13">
       <formula>IF(FIND(" ",$A2)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/financial_data_formula.xlsx
+++ b/src/test/resources/financial_data_formula.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>fitchFieldId</t>
   </si>
@@ -199,12 +199,6 @@
   </si>
   <si>
     <t>(FC_TOTAL_EQUITY_BNK-FC_GOODWILL_BNK-FC_OTHER_INTANGIBLES_BNK-FC_DEFER_TAX_ASSETS_DEDUCTED_CORE_CAPITAL_BNK)/(FC_TOTAL_ASSETS_BNK-FC_GOODWILL_BNK-FC_OTHER_INTANGIBLES_BNK-FC_DEFER_TAX_ASSETS_DEDUCTED_CORE_CAPITAL_BNK)</t>
-  </si>
-  <si>
-    <t>FC_NET_INCOME_MINUS_CASH_DIV_TOTAL_EQUITY_BNK</t>
-  </si>
-  <si>
-    <t>(FC_NET_INCOME_BNK-FC_COMM_DIV_RELATING_PERIOD_BNK-FC_PREF_DIV_RELATING_PERDIO_BNK)/FC_TOTAL_EQUITY_BNK</t>
   </si>
   <si>
     <t>FC_NPL_GROSS_LOANS_BNK</t>
@@ -649,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -706,7 +700,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -714,7 +708,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -770,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -933,7 +927,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>65</v>
       </c>
@@ -955,14 +949,6 @@
       </c>
       <c r="B37" s="2" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -972,17 +958,17 @@
     </cfRule>
     <cfRule type="duplicateValues" dxfId="4" priority="8"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
+  <conditionalFormatting sqref="B36">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>IF(FIND(" ",$A37)&gt;0,TRUE,FALSE)</formula>
+      <formula>IF(FIND(" ",$A36)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A38">
-    <cfRule type="expression" dxfId="1" priority="13">
+  <conditionalFormatting sqref="A2:A37">
+    <cfRule type="expression" dxfId="1" priority="15">
       <formula>IF(FIND(" ",$A2)&gt;0,TRUE,FALSE)</formula>
     </cfRule>
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
